--- a/Orchestrator2022/Vendor S9/Vendor_S9_Dispatcher.2023.10.2/lib/net45/Data/Config.xlsx
+++ b/Orchestrator2022/Vendor S9/Vendor_S9_Dispatcher.2023.10.2/lib/net45/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1File\UPProject\Vendor File\Latest\Vendor Master File Upload  Dispatcher\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NTMGRM.OOHPBTDIGS9\Documents\NA-Automation\Vendor S9\ORC Folder RE\Vendor_S9_Dispatcher.2023.10.2\lib\net45\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D24AA3-61F3-42B3-9350-985F327A6866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C870687-1A52-420A-A627-D379684D5CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Cloud_FolderPath</t>
+  </si>
+  <si>
+    <t>GMUSA_VendorS9</t>
   </si>
 </sst>
 </file>
@@ -239,10 +245,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -565,7 +571,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -677,7 +683,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3894,6 +3907,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7f25b792-b2ba-4b5c-8669-b39a27555406" xsi:nil="true"/>
+    <Time xmlns="649a79cd-06e4-47a3-aac9-21cb806f3675" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="649a79cd-06e4-47a3-aac9-21cb806f3675">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045A9A53AB2AD7C409EFC96CC55961B83" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="737d8429b8eb9892549b3c27dc155f66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="649a79cd-06e4-47a3-aac9-21cb806f3675" xmlns:ns3="7f25b792-b2ba-4b5c-8669-b39a27555406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c35880a7ae30656a46222e88cc05a07" ns2:_="" ns3:_="">
     <xsd:import namespace="649a79cd-06e4-47a3-aac9-21cb806f3675"/>
@@ -4116,35 +4150,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7f25b792-b2ba-4b5c-8669-b39a27555406" xsi:nil="true"/>
-    <Time xmlns="649a79cd-06e4-47a3-aac9-21cb806f3675" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="649a79cd-06e4-47a3-aac9-21cb806f3675">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0753235-EEE6-49D6-9521-245B16C1551A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F1ECBC2-6061-44F9-9D02-C264DCED5CA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F1ECBC2-6061-44F9-9D02-C264DCED5CA8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA558807-3995-4415-8FD8-575B99700A76}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f25b792-b2ba-4b5c-8669-b39a27555406"/>
+    <ds:schemaRef ds:uri="649a79cd-06e4-47a3-aac9-21cb806f3675"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA558807-3995-4415-8FD8-575B99700A76}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0753235-EEE6-49D6-9521-245B16C1551A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="649a79cd-06e4-47a3-aac9-21cb806f3675"/>
+    <ds:schemaRef ds:uri="7f25b792-b2ba-4b5c-8669-b39a27555406"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>